--- a/Excel/窗口表.xlsx
+++ b/Excel/窗口表.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
